--- a/data/outputs/OR/3 .xlsx
+++ b/data/outputs/OR/3 .xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ64"/>
+  <dimension ref="A1:BR64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -921,6 +926,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1136,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1331,6 +1338,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1540,6 +1548,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1741,6 +1750,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1950,6 +1960,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2159,6 +2170,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2376,6 +2388,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2589,6 +2602,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2802,6 +2816,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3007,6 +3022,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3216,6 +3232,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3425,6 +3442,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3634,6 +3652,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3851,6 +3870,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4060,6 +4080,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4269,6 +4290,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4478,6 +4500,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4691,6 +4714,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4900,6 +4924,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5109,6 +5134,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>11775386</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5318,6 +5348,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5535,6 +5566,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>2822379</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5744,6 +5780,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5953,6 +5990,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6162,6 +6200,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6371,6 +6410,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6580,6 +6620,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6789,6 +6830,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6994,6 +7036,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7203,6 +7246,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7412,6 +7456,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7613,6 +7658,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7822,6 +7868,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8031,6 +8078,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8240,6 +8288,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8449,6 +8498,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8662,6 +8712,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8863,6 +8914,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9076,6 +9128,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9293,6 +9346,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9502,6 +9556,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9711,6 +9766,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9920,6 +9976,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10129,6 +10186,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10338,6 +10396,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10547,6 +10606,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10752,6 +10812,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10961,6 +11022,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11170,6 +11232,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11383,6 +11446,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11612,6 +11676,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11841,6 +11906,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12070,6 +12136,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12259,6 +12326,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12492,6 +12560,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12721,6 +12790,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12950,6 +13020,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13183,6 +13254,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13416,6 +13488,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13645,6 +13718,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13834,6 +13908,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14051,6 +14126,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
